--- a/aa/testmdn.xlsx
+++ b/aa/testmdn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="175">
   <si>
     <t>Part</t>
   </si>
@@ -63,6 +63,492 @@
   </si>
   <si>
     <t>MURATA ELECTRONICS</t>
+  </si>
+  <si>
+    <t>CFN10061595</t>
+  </si>
+  <si>
+    <t>74LVC2244APW,118</t>
+  </si>
+  <si>
+    <t>NEXPERIA</t>
+  </si>
+  <si>
+    <t>CFN10062814</t>
+  </si>
+  <si>
+    <t>XR16C2850CM-F</t>
+  </si>
+  <si>
+    <t>EXAR</t>
+  </si>
+  <si>
+    <t>CFN10099177</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD1003F</t>
+  </si>
+  <si>
+    <t>CFN10099178</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD39R2F</t>
+  </si>
+  <si>
+    <t>CFN10100591</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD4992F</t>
+  </si>
+  <si>
+    <t>CFN10100594</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD3012F</t>
+  </si>
+  <si>
+    <t>CFN10101646</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD1963F</t>
+  </si>
+  <si>
+    <t>CFN10101647</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD3323F</t>
+  </si>
+  <si>
+    <t>CFN10108963</t>
+  </si>
+  <si>
+    <t>ABMM-13.000MHZ-T</t>
+  </si>
+  <si>
+    <t>ABRACON</t>
+  </si>
+  <si>
+    <t>CFN10596443</t>
+  </si>
+  <si>
+    <t>0603YC104KAT2A</t>
+  </si>
+  <si>
+    <t>AVX/KYOCERA</t>
+  </si>
+  <si>
+    <t>CFN11434695</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2102F</t>
+  </si>
+  <si>
+    <t>CFN11544595</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP8062F</t>
+  </si>
+  <si>
+    <t>CFN11544596</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP2002F</t>
+  </si>
+  <si>
+    <t>CFN11544597</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP1000F</t>
+  </si>
+  <si>
+    <t>CFN11610365</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP1003F</t>
+  </si>
+  <si>
+    <t>CFN11615922</t>
+  </si>
+  <si>
+    <t>C0402C222K5RAC</t>
+  </si>
+  <si>
+    <t>CFN11642814</t>
+  </si>
+  <si>
+    <t>ERJ2RKF3322X</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>CFN11667772</t>
+  </si>
+  <si>
+    <t>MSP430F5418AIPNR REV. H</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>CFN11672625</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP33R0F</t>
+  </si>
+  <si>
+    <t>CFN11712422</t>
+  </si>
+  <si>
+    <t>RK73H1JTTD9093F</t>
+  </si>
+  <si>
+    <t>CFN11806808</t>
+  </si>
+  <si>
+    <t>NFL21SP506X1C3D</t>
+  </si>
+  <si>
+    <t>CFN11830091</t>
+  </si>
+  <si>
+    <t>T510X476K035ATE065</t>
+  </si>
+  <si>
+    <t>CFN12273797</t>
+  </si>
+  <si>
+    <t>C1206C475K5PAC7800</t>
+  </si>
+  <si>
+    <t>CFN12273883</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP1623F</t>
+  </si>
+  <si>
+    <t>CFN12273884</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP3013F</t>
+  </si>
+  <si>
+    <t>CFN12274103</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP5363F</t>
+  </si>
+  <si>
+    <t>CFN12274153</t>
+  </si>
+  <si>
+    <t>CC0402KRX5R6BB224</t>
+  </si>
+  <si>
+    <t>YAGEO CORPORATION</t>
+  </si>
+  <si>
+    <t>CFN12274200</t>
+  </si>
+  <si>
+    <t>C0805C474K5RAC7800</t>
+  </si>
+  <si>
+    <t>CFN144713</t>
+  </si>
+  <si>
+    <t>144713</t>
+  </si>
+  <si>
+    <t>AVNET</t>
+  </si>
+  <si>
+    <t>CFN304771</t>
+  </si>
+  <si>
+    <t>08053C104MAT2A</t>
+  </si>
+  <si>
+    <t>CFN320036</t>
+  </si>
+  <si>
+    <t>1206YC105KAT2A</t>
+  </si>
+  <si>
+    <t>CFN320083</t>
+  </si>
+  <si>
+    <t>43045-0412</t>
+  </si>
+  <si>
+    <t>MOLEX INCORPORATED</t>
+  </si>
+  <si>
+    <t>CFN320086</t>
+  </si>
+  <si>
+    <t>015403.5.DR</t>
+  </si>
+  <si>
+    <t>LITTELFUSE</t>
+  </si>
+  <si>
+    <t>CFN320157R010</t>
+  </si>
+  <si>
+    <t>LRF3W-R01FW</t>
+  </si>
+  <si>
+    <t>WELWYN COMPONENTS LTD.</t>
+  </si>
+  <si>
+    <t>CFN320782</t>
+  </si>
+  <si>
+    <t>H-178C-LP</t>
+  </si>
+  <si>
+    <t>BIVAR</t>
+  </si>
+  <si>
+    <t>CFN320799</t>
+  </si>
+  <si>
+    <t>TLC555IDR</t>
+  </si>
+  <si>
+    <t>CFN3410109301</t>
+  </si>
+  <si>
+    <t>BAT54C-7-F</t>
+  </si>
+  <si>
+    <t>DIODES INC</t>
+  </si>
+  <si>
+    <t>CFN8111214992</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP4992F</t>
+  </si>
+  <si>
+    <t>CFN811131104</t>
+  </si>
+  <si>
+    <t>RK73B1ETTP104J</t>
+  </si>
+  <si>
+    <t>CFN815120</t>
+  </si>
+  <si>
+    <t>NTHS1005N01N5002JE</t>
+  </si>
+  <si>
+    <t>VISHAY/DALE</t>
+  </si>
+  <si>
+    <t>CFN815130</t>
+  </si>
+  <si>
+    <t>SM05.TCT</t>
+  </si>
+  <si>
+    <t>SEMTECH</t>
+  </si>
+  <si>
+    <t>CFN815136</t>
+  </si>
+  <si>
+    <t>TSD-720</t>
+  </si>
+  <si>
+    <t>PREMIER MAGNETICS</t>
+  </si>
+  <si>
+    <t>CFN8178031000</t>
+  </si>
+  <si>
+    <t>RC0805FR-07100RL</t>
+  </si>
+  <si>
+    <t>CFN8178031473</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD1473F</t>
+  </si>
+  <si>
+    <t>CFN8178031963</t>
+  </si>
+  <si>
+    <t>CFN8178032213</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2213F</t>
+  </si>
+  <si>
+    <t>CFN8178032432</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2432F</t>
+  </si>
+  <si>
+    <t>CFN8178032491</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2491F</t>
+  </si>
+  <si>
+    <t>CFN8178032492</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2492F</t>
+  </si>
+  <si>
+    <t>CFN8178032493</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2493F</t>
+  </si>
+  <si>
+    <t>CFN8178032552</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2552F</t>
+  </si>
+  <si>
+    <t>CFN8178032613</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2613F</t>
+  </si>
+  <si>
+    <t>CFN8178033323</t>
+  </si>
+  <si>
+    <t>CFN8178033742</t>
+  </si>
+  <si>
+    <t>CRCW080537K4FKEA</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>CFN8178034023</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD4023F</t>
+  </si>
+  <si>
+    <t>CFN8178034753</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD4753F</t>
+  </si>
+  <si>
+    <t>CFN8178035111</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD5111F</t>
+  </si>
+  <si>
+    <t>CFN8178036043</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD6043F</t>
+  </si>
+  <si>
+    <t>CFN8178036653</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD6653F</t>
+  </si>
+  <si>
+    <t>CFN8178036811</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD6811F</t>
+  </si>
+  <si>
+    <t>CFN8178036983</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD6983F</t>
+  </si>
+  <si>
+    <t>CFN8178038252</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD8252F</t>
+  </si>
+  <si>
+    <t>CFN8178039533</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD9533F</t>
+  </si>
+  <si>
+    <t>CFN8178061000</t>
+  </si>
+  <si>
+    <t>RK73H1JTTD1000F</t>
+  </si>
+  <si>
+    <t>CFN8181013354</t>
+  </si>
+  <si>
+    <t>T491A335M016AT</t>
+  </si>
+  <si>
+    <t>CFN8181052272</t>
+  </si>
+  <si>
+    <t>293D227X06R3E2TE3</t>
+  </si>
+  <si>
+    <t>VISHAY/SPRAGUE</t>
+  </si>
+  <si>
+    <t>CFN818201220</t>
+  </si>
+  <si>
+    <t>C0805C220J5GAC7800</t>
+  </si>
+  <si>
+    <t>CFN818245331</t>
+  </si>
+  <si>
+    <t>12065A331JAT2A</t>
+  </si>
+  <si>
+    <t>CFN818245681</t>
+  </si>
+  <si>
+    <t>C1206C681J5GAC7800</t>
+  </si>
+  <si>
+    <t>CFN818246223</t>
+  </si>
+  <si>
+    <t>C1206C223K5RAC7800</t>
+  </si>
+  <si>
+    <t>CFN818246224</t>
+  </si>
+  <si>
+    <t>12063C224KAT2A</t>
+  </si>
+  <si>
+    <t>CFN8238311001</t>
+  </si>
+  <si>
+    <t>GRM155R71H102KA01D</t>
+  </si>
+  <si>
+    <t>CFN823935474</t>
+  </si>
+  <si>
+    <t>12101C474KAT2A</t>
   </si>
 </sst>
 </file>
@@ -392,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -462,6 +948,1070 @@
         <v>-96046</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>-18788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>-96046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>-13298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>-2329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>-236928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>-8697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>-23505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>-10407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>-7330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>-9644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>-21097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>-24886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>-8253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>-17731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>-248608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>-31239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>-32262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>-108665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>-8307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>-16136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>-29094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>-7206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>-3724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>-123200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>-10148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>-11720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>-8243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>-15659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>-8133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>-39642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>-22215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>-14114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>-55010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>-43946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>-3609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>-9237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>-22414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42">
+        <v>-29610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>-17661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>-5518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>-10078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>-5054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47">
+        <v>-10649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48">
+        <v>-47307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49">
+        <v>-9794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50">
+        <v>-119393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>-5579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>-5007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>-5417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>-5494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>-16305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>-14289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>-38602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>-27274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>-17513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>-19130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61">
+        <v>-76406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>-47434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>-12274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>-11053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>-30538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>-13394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>-3684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>-15179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>-7511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>-7081</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>-133862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>-38481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73">
+        <v>-14787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>-6967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75">
+        <v>-5285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>-13843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>-4869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78">
+        <v>-74369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>-46462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80">
+        <v>-81981</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aa/testmdn.xlsx
+++ b/aa/testmdn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Part</t>
   </si>
@@ -38,43 +38,13 @@
     <t>Need qty</t>
   </si>
   <si>
-    <t>CFN10013346</t>
-  </si>
-  <si>
-    <t>C1206C475M8PACTU</t>
-  </si>
-  <si>
-    <t>KEMET CORPORATION</t>
-  </si>
-  <si>
-    <t>CFN10014646</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP2672F</t>
-  </si>
-  <si>
-    <t>KOA</t>
-  </si>
-  <si>
     <t>CFN11787511</t>
   </si>
   <si>
-    <t>GRM21BR61A225KA01L</t>
-  </si>
-  <si>
     <t>MURATA ELECTRONICS</t>
   </si>
   <si>
-    <t>MAX706SCSA+T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgrt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rtert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>GRM31MR71E224KA01L</t>
   </si>
 </sst>
 </file>
@@ -120,7 +90,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,72 +406,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>-18788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>-3724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>-96046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>-18788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="D2" s="1">
         <v>-3724</v>
       </c>
     </row>
